--- a/data/trans_camb/IP18A02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP18A02-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,95</t>
+          <t>-17,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-15,85</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>-20,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-5,47</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>17,8</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,5</t>
+          <t>-11,62</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>-11,26</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 0,82</t>
+          <t>-38,01; 7,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 3,55</t>
+          <t>-36,81; 6,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 18,46</t>
+          <t>-40,97; 24,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 5,93</t>
+          <t>-25,16; 9,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 6,9</t>
+          <t>-5,03; 43,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 20,32</t>
+          <t>-20,91; 37,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 1,25</t>
+          <t>-26,44; 1,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 2,83</t>
+          <t>-16,48; 16,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 14,43</t>
+          <t>-27,35; 11,53</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-28,53%</t>
+          <t>-53,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-15,06%</t>
+          <t>-50,1%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>-63,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,64%</t>
+          <t>-42,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>137,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>-8,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-17,81%</t>
+          <t>-50,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-7,39%</t>
+          <t>-1,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>-49,12%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-51,25; 6,0</t>
+          <t>-88,42; 74,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-38,44; 21,27</t>
+          <t>-86,98; 46,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,24; 98,98</t>
+          <t>-100,0; 146,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,43; 39,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,45; 47,01</t>
+          <t>-35,71; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,75; 127,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-36,27; 7,35</t>
+          <t>-84,03; 20,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,29; 15,98</t>
+          <t>-57,57; 118,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-14,75; 76,21</t>
+          <t>-100,0; 97,53</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>-5,95</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,42</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-11,54</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,7</t>
+          <t>4,97</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 9,37</t>
+          <t>-12,62; 0,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 7,88</t>
+          <t>-9,2; 3,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 17,19</t>
+          <t>-5,01; 18,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 6,31</t>
+          <t>-7,13; 5,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 0,61</t>
+          <t>-5,74; 6,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,76; 1,71</t>
+          <t>-9,41; 20,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 5,53</t>
+          <t>-7,88; 1,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 1,35</t>
+          <t>-6,76; 2,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 3,79</t>
+          <t>-3,15; 14,43</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>-28,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>-15,06%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>27,76%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,27%</t>
+          <t>-4,64%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-24,37%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-43,77%</t>
+          <t>15,83%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>-17,81%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-13,11%</t>
+          <t>-7,39%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-25,02%</t>
+          <t>25,27%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,1; 60,57</t>
+          <t>-51,25; 6,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-26,42; 50,56</t>
+          <t>-38,44; 21,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-53,86; 102,11</t>
+          <t>-22,24; 98,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,38; 27,73</t>
+          <t>-34,43; 39,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,71; 2,59</t>
+          <t>-26,45; 47,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-79,98; 9,1</t>
+          <t>-47,75; 127,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 27,47</t>
+          <t>-36,27; 7,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,64; 6,85</t>
+          <t>-30,29; 15,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-58,73; 19,42</t>
+          <t>-14,75; 76,21</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-17,03</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-15,85</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-20,16</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,47</t>
+          <t>-5,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>17,8</t>
+          <t>-5,49</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-11,62</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-11,26</t>
+          <t>-3,22</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-38,01; 7,73</t>
+          <t>-6,53; 9,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-36,81; 6,69</t>
+          <t>-2,69; 13,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-40,97; 24,11</t>
+          <t>-15,02; 12,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-25,16; 9,62</t>
+          <t>-13,32; 2,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 43,68</t>
+          <t>-12,78; 2,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,91; 37,75</t>
+          <t>-14,49; 14,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-26,44; 1,93</t>
+          <t>-7,54; 3,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 16,61</t>
+          <t>-5,19; 6,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-27,35; 11,53</t>
+          <t>-12,22; 8,03</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-53,81%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-50,1%</t>
+          <t>31,37%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-63,71%</t>
+          <t>-19,03%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-42,09%</t>
+          <t>-22,03%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>137,1%</t>
+          <t>-22,25%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-8,83%</t>
+          <t>-9,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-50,71%</t>
+          <t>-9,45%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-1,7%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-49,12%</t>
+          <t>-14,81%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-88,42; 74,36</t>
+          <t>-28,26; 61,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-86,98; 46,21</t>
+          <t>-12,98; 90,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 146,14</t>
+          <t>-70,46; 88,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,3; 10,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,71; —</t>
+          <t>-45,37; 11,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,56; 67,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-84,03; 20,55</t>
+          <t>-29,63; 20,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-57,57; 118,2</t>
+          <t>-20,79; 32,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 97,53</t>
+          <t>-52,93; 40,36</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-5,44</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-5,49</t>
+          <t>-6,42</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>-11,54</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>-5,7</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 9,07</t>
+          <t>-4,15; 9,37</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 13,96</t>
+          <t>-5,59; 7,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 12,86</t>
+          <t>-10,78; 17,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 2,15</t>
+          <t>-8,52; 6,31</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 2,03</t>
+          <t>-14,13; 0,61</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 14,98</t>
+          <t>-22,76; 1,71</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 3,69</t>
+          <t>-4,42; 5,53</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 6,02</t>
+          <t>-8,04; 1,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 8,03</t>
+          <t>-13,95; 3,79</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>31,37%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-19,03%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-22,03%</t>
+          <t>-4,27%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-22,25%</t>
+          <t>-24,37%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-9,99%</t>
+          <t>-43,77%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-9,45%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>-13,11%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-14,81%</t>
+          <t>-25,02%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-28,26; 61,46</t>
+          <t>-19,1; 60,57</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 90,81</t>
+          <t>-26,42; 50,56</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-70,46; 88,36</t>
+          <t>-53,86; 102,11</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-46,3; 10,75</t>
+          <t>-28,38; 27,73</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-45,37; 11,8</t>
+          <t>-46,71; 2,59</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-55,56; 67,63</t>
+          <t>-79,98; 9,1</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-29,63; 20,48</t>
+          <t>-17,31; 27,47</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-20,79; 32,6</t>
+          <t>-31,64; 6,85</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-52,93; 40,36</t>
+          <t>-58,73; 19,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP18A02-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-38,01; 7,73</t>
+          <t>-38,16; 4,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-36,81; 6,69</t>
+          <t>-35,81; 3,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-40,97; 24,11</t>
+          <t>-42,61; 19,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-25,16; 9,62</t>
+          <t>-26,22; 8,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 43,68</t>
+          <t>-7,73; 43,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,91; 37,75</t>
+          <t>-18,44; 37,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-26,44; 1,93</t>
+          <t>-25,7; 1,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 16,61</t>
+          <t>-17,19; 16,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-27,35; 11,53</t>
+          <t>-27,38; 15,13</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-88,42; 74,36</t>
+          <t>-90,61; 44,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-86,98; 46,21</t>
+          <t>-87,03; 29,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 146,14</t>
+          <t>-100,0; 98,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,71; —</t>
+          <t>-52,17; 1000,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-84,03; 20,55</t>
+          <t>-80,69; 22,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-57,57; 118,2</t>
+          <t>-56,59; 105,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 97,53</t>
+          <t>-100,0; 113,89</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 9,18</t>
+          <t>-9,14; 8,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 4,98</t>
+          <t>-12,43; 4,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 5,27</t>
+          <t>-19,85; 8,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 8,02</t>
+          <t>-11,2; 8,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,86; -1,37</t>
+          <t>-19,38; -1,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 29,83</t>
+          <t>-17,96; 27,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 6,06</t>
+          <t>-6,97; 6,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,4; -0,46</t>
+          <t>-13,44; -0,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 8,24</t>
+          <t>-15,99; 8,51</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,7; 60,67</t>
+          <t>-34,45; 56,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-48,4; 32,82</t>
+          <t>-49,36; 29,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-89,21; 48,68</t>
+          <t>-86,76; 51,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,73; 38,32</t>
+          <t>-35,16; 40,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-63,72; -7,27</t>
+          <t>-64,6; -9,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-62,31; 132,7</t>
+          <t>-65,08; 119,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,52; 31,58</t>
+          <t>-26,37; 32,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,03; -2,24</t>
+          <t>-50,93; -4,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-65,21; 38,63</t>
+          <t>-64,11; 39,04</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 0,82</t>
+          <t>-12,32; -0,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 3,55</t>
+          <t>-9,74; 2,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 18,46</t>
+          <t>-5,54; 17,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 5,93</t>
+          <t>-7,53; 5,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 6,9</t>
+          <t>-5,6; 6,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 20,32</t>
+          <t>-9,2; 20,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 1,25</t>
+          <t>-8,17; 0,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 2,83</t>
+          <t>-6,12; 2,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 14,43</t>
+          <t>-3,43; 14,62</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-51,25; 6,0</t>
+          <t>-49,67; -0,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-38,44; 21,27</t>
+          <t>-39,68; 16,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,24; 98,98</t>
+          <t>-25,37; 93,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,43; 39,95</t>
+          <t>-34,01; 38,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,45; 47,01</t>
+          <t>-26,31; 45,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,75; 127,24</t>
+          <t>-48,4; 139,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,27; 7,35</t>
+          <t>-37,38; 4,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,29; 15,98</t>
+          <t>-27,22; 17,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-14,75; 76,21</t>
+          <t>-16,12; 77,65</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 9,07</t>
+          <t>-5,54; 9,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 13,96</t>
+          <t>-1,78; 14,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 12,86</t>
+          <t>-14,56; 15,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 2,15</t>
+          <t>-13,13; 3,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 2,03</t>
+          <t>-13,72; 2,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 14,98</t>
+          <t>-15,84; 13,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 3,69</t>
+          <t>-7,77; 3,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 6,02</t>
+          <t>-5,37; 6,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 8,03</t>
+          <t>-12,0; 8,65</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-28,26; 61,46</t>
+          <t>-25,24; 66,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 90,81</t>
+          <t>-9,36; 94,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-70,46; 88,36</t>
+          <t>-70,71; 86,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-46,3; 10,75</t>
+          <t>-46,07; 17,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-45,37; 11,8</t>
+          <t>-48,64; 11,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-55,56; 67,63</t>
+          <t>-60,29; 64,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-29,63; 20,48</t>
+          <t>-31,94; 18,85</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-20,79; 32,6</t>
+          <t>-21,39; 37,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-52,93; 40,36</t>
+          <t>-51,61; 42,9</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 9,37</t>
+          <t>-4,55; 8,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 7,88</t>
+          <t>-6,18; 7,19</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 17,19</t>
+          <t>-10,78; 15,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 6,31</t>
+          <t>-8,7; 6,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 0,61</t>
+          <t>-13,7; 0,92</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-22,76; 1,71</t>
+          <t>-21,16; 3,81</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 5,53</t>
+          <t>-4,5; 5,7</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 1,35</t>
+          <t>-8,08; 1,9</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 3,79</t>
+          <t>-13,57; 4,76</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-19,1; 60,57</t>
+          <t>-20,04; 57,84</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-26,42; 50,56</t>
+          <t>-27,96; 46,57</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-53,86; 102,11</t>
+          <t>-55,44; 93,1</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-28,38; 27,73</t>
+          <t>-29,51; 29,44</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-46,71; 2,59</t>
+          <t>-45,92; 4,68</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-79,98; 9,1</t>
+          <t>-75,56; 20,57</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 27,47</t>
+          <t>-17,89; 28,08</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-31,64; 6,85</t>
+          <t>-31,77; 9,07</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-58,73; 19,42</t>
+          <t>-56,24; 24,6</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 2,19</t>
+          <t>-4,97; 2,22</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 2,68</t>
+          <t>-5,0; 2,42</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 6,87</t>
+          <t>-6,24; 6,34</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 1,51</t>
+          <t>-5,8; 2,14</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,2; -0,95</t>
+          <t>-8,12; -0,38</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 4,52</t>
+          <t>-9,78; 5,33</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 0,84</t>
+          <t>-4,78; 0,53</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 0,02</t>
+          <t>-5,2; 0,08</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 3,07</t>
+          <t>-6,83; 2,52</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-21,79; 12,28</t>
+          <t>-22,33; 11,9</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 14,48</t>
+          <t>-22,26; 13,48</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-29,31; 35,98</t>
+          <t>-28,98; 33,57</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-24,46; 7,67</t>
+          <t>-22,81; 10,31</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-32,55; -4,29</t>
+          <t>-31,83; -1,64</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-42,8; 20,38</t>
+          <t>-40,19; 24,46</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-18,57; 3,98</t>
+          <t>-20,57; 2,69</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-21,49; 0,11</t>
+          <t>-22,39; 0,31</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-28,35; 15,18</t>
+          <t>-30,4; 12,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP18A02-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-38,16; 4,8</t>
+          <t>-39,13; 3,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-35,81; 3,18</t>
+          <t>-39,47; 5,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-42,61; 19,36</t>
+          <t>-41,88; 17,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,22; 8,98</t>
+          <t>-24,82; 10,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 43,43</t>
+          <t>-6,15; 40,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,44; 37,81</t>
+          <t>-20,08; 43,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,7; 1,45</t>
+          <t>-25,61; 3,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,19; 16,11</t>
+          <t>-15,66; 17,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-27,38; 15,13</t>
+          <t>-27,18; 13,95</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-90,61; 44,6</t>
+          <t>-88,65; 32,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-87,03; 29,59</t>
+          <t>-87,57; 43,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 98,26</t>
+          <t>-100,0; 106,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,17; 1000,91</t>
+          <t>-51,62; 989,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-80,69; 22,63</t>
+          <t>-84,44; 32,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-56,59; 105,54</t>
+          <t>-52,66; 165,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 113,89</t>
+          <t>-100,0; 108,86</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 8,71</t>
+          <t>-7,91; 9,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 4,82</t>
+          <t>-12,63; 4,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,85; 8,48</t>
+          <t>-20,96; 7,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 8,88</t>
+          <t>-11,16; 9,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,38; -1,99</t>
+          <t>-19,78; -1,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 27,11</t>
+          <t>-17,59; 28,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 6,17</t>
+          <t>-7,02; 5,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,44; -0,82</t>
+          <t>-13,68; -1,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 8,51</t>
+          <t>-16,0; 8,65</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,45; 56,61</t>
+          <t>-32,15; 58,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-49,36; 29,63</t>
+          <t>-51,71; 27,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-86,76; 51,04</t>
+          <t>-87,34; 58,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,16; 40,89</t>
+          <t>-36,21; 42,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-64,6; -9,64</t>
+          <t>-63,23; -8,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-65,08; 119,15</t>
+          <t>-62,79; 122,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,37; 32,16</t>
+          <t>-26,92; 30,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-50,93; -4,02</t>
+          <t>-51,47; -6,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-64,11; 39,04</t>
+          <t>-64,46; 44,23</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,32; -0,2</t>
+          <t>-12,31; 0,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 2,72</t>
+          <t>-9,09; 3,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 17,31</t>
+          <t>-5,73; 17,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 5,7</t>
+          <t>-6,93; 4,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 6,66</t>
+          <t>-6,0; 6,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 20,92</t>
+          <t>-7,75; 22,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 0,9</t>
+          <t>-7,8; 1,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 2,97</t>
+          <t>-5,75; 2,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 14,62</t>
+          <t>-3,11; 14,57</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-49,67; -0,4</t>
+          <t>-50,12; 2,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,68; 16,29</t>
+          <t>-37,04; 18,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,37; 93,77</t>
+          <t>-23,98; 99,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,01; 38,32</t>
+          <t>-33,81; 32,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,31; 45,65</t>
+          <t>-28,33; 42,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,4; 139,98</t>
+          <t>-42,35; 129,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-37,38; 4,68</t>
+          <t>-35,18; 6,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,22; 17,47</t>
+          <t>-26,19; 17,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 77,65</t>
+          <t>-16,06; 80,95</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 9,26</t>
+          <t>-6,04; 8,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 14,67</t>
+          <t>-2,42; 13,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 15,29</t>
+          <t>-15,56; 11,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 3,02</t>
+          <t>-13,65; 2,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 2,26</t>
+          <t>-13,84; 1,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 13,87</t>
+          <t>-15,24; 14,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 3,46</t>
+          <t>-7,25; 2,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 6,68</t>
+          <t>-4,91; 5,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 8,65</t>
+          <t>-11,74; 7,66</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 66,29</t>
+          <t>-26,81; 55,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 94,06</t>
+          <t>-10,72; 88,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-70,71; 86,51</t>
+          <t>-73,62; 73,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-46,07; 17,23</t>
+          <t>-47,8; 11,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-48,64; 11,09</t>
+          <t>-47,94; 7,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-60,29; 64,3</t>
+          <t>-60,04; 66,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-31,94; 18,85</t>
+          <t>-29,87; 14,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,39; 37,1</t>
+          <t>-20,85; 31,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-51,61; 42,9</t>
+          <t>-52,6; 39,06</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 8,86</t>
+          <t>-4,82; 8,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 7,19</t>
+          <t>-5,82; 7,16</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 15,37</t>
+          <t>-10,5; 15,57</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 6,6</t>
+          <t>-8,31; 6,73</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 0,92</t>
+          <t>-13,94; 0,94</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 3,81</t>
+          <t>-22,52; 3,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 5,7</t>
+          <t>-4,58; 5,1</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 1,9</t>
+          <t>-7,95; 1,89</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-13,57; 4,76</t>
+          <t>-13,4; 4,79</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-20,04; 57,84</t>
+          <t>-21,37; 53,55</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-27,96; 46,57</t>
+          <t>-26,94; 46,89</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-55,44; 93,1</t>
+          <t>-52,72; 96,02</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-29,51; 29,44</t>
+          <t>-27,36; 30,67</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-45,92; 4,68</t>
+          <t>-47,2; 4,19</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-75,56; 20,57</t>
+          <t>-80,24; 19,8</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 28,08</t>
+          <t>-17,77; 25,53</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-31,77; 9,07</t>
+          <t>-31,6; 8,8</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-56,24; 24,6</t>
+          <t>-54,86; 24,2</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 2,22</t>
+          <t>-5,01; 1,97</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 2,42</t>
+          <t>-4,2; 2,53</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 6,34</t>
+          <t>-6,46; 5,97</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 2,14</t>
+          <t>-5,89; 1,84</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,12; -0,38</t>
+          <t>-8,3; -0,74</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 5,33</t>
+          <t>-10,01; 4,9</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 0,53</t>
+          <t>-4,43; 0,63</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 0,08</t>
+          <t>-5,12; 0,02</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 2,52</t>
+          <t>-6,89; 2,86</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-22,33; 11,9</t>
+          <t>-22,95; 10,81</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-22,26; 13,48</t>
+          <t>-19,42; 13,76</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-28,98; 33,57</t>
+          <t>-30,83; 31,72</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 10,31</t>
+          <t>-24,07; 8,58</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-31,83; -1,64</t>
+          <t>-32,29; -3,53</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-40,19; 24,46</t>
+          <t>-41,29; 21,18</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-20,57; 2,69</t>
+          <t>-19,2; 2,76</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-22,39; 0,31</t>
+          <t>-22,17; 0,06</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-30,4; 12,14</t>
+          <t>-30,7; 13,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP18A02-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-17,03</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-15,85</t>
+          <t>-6,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-20,16</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,47</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,8</t>
+          <t>-6,08</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-12,43</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-11,62</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-6,06</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-11,26</t>
+          <t>-7,87</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-39,13; 3,23</t>
+          <t>-10,85; 6,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-39,47; 5,5</t>
+          <t>-14,3; 2,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-41,88; 17,15</t>
+          <t>-16,04; 22,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,82; 10,03</t>
+          <t>-10,76; 5,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 40,19</t>
+          <t>-14,6; 1,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,08; 43,04</t>
+          <t>-22,01; 2,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 3,58</t>
+          <t>-8,13; 3,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 17,94</t>
+          <t>-12,31; -0,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-27,18; 13,95</t>
+          <t>-16,41; 4,63</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-53,81%</t>
+          <t>-8,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-50,1%</t>
+          <t>-25,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-63,71%</t>
+          <t>-8,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-42,09%</t>
+          <t>-11,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>137,1%</t>
+          <t>-26,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-8,83%</t>
+          <t>-55,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-50,71%</t>
+          <t>-10,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-1,7%</t>
+          <t>-26,07%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-49,12%</t>
+          <t>-33,87%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-88,65; 32,75</t>
+          <t>-40,04; 34,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-87,57; 43,31</t>
+          <t>-50,23; 17,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 106,96</t>
+          <t>-62,75; 110,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,55; 29,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-51,62; 989,79</t>
+          <t>-54,23; 8,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,38; 19,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-84,44; 32,93</t>
+          <t>-31,72; 19,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-52,66; 165,18</t>
+          <t>-46,45; -3,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 108,86</t>
+          <t>-66,25; 26,85</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,04</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,2</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-5,95</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-10,9</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-7,3</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-6,06</t>
+          <t>4,02</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 9,14</t>
+          <t>-7,13; 5,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 4,99</t>
+          <t>-5,74; 6,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-20,96; 7,44</t>
+          <t>-10,62; 17,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 9,16</t>
+          <t>-12,62; 0,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,78; -1,93</t>
+          <t>-9,2; 3,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 28,04</t>
+          <t>-5,78; 16,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 5,96</t>
+          <t>-7,88; 1,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,68; -1,39</t>
+          <t>-6,76; 2,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 8,65</t>
+          <t>-3,85; 13,14</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>-4,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-19,5%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-49,27%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-5,76%</t>
+          <t>-28,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-41,58%</t>
+          <t>-15,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,01%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-2,46%</t>
+          <t>-17,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-31,3%</t>
+          <t>-7,39%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-25,97%</t>
+          <t>20,44%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,15; 58,14</t>
+          <t>-34,43; 39,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-51,71; 27,37</t>
+          <t>-26,45; 47,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-87,34; 58,82</t>
+          <t>-52,26; 110,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,21; 42,92</t>
+          <t>-51,25; 6,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-63,23; -8,38</t>
+          <t>-38,44; 21,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-62,79; 122,41</t>
+          <t>-24,83; 92,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,92; 30,4</t>
+          <t>-36,27; 7,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,47; -6,13</t>
+          <t>-30,29; 15,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-64,46; 44,23</t>
+          <t>-18,31; 70,22</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,95</t>
+          <t>-5,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-5,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-3,5</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>-4,16</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 0,19</t>
+          <t>-13,32; 2,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 3,05</t>
+          <t>-12,78; 2,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 17,27</t>
+          <t>-15,31; 13,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 4,98</t>
+          <t>-6,53; 9,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 6,38</t>
+          <t>-2,69; 13,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 22,47</t>
+          <t>-15,48; 11,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 1,02</t>
+          <t>-7,54; 3,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 2,84</t>
+          <t>-5,19; 6,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 14,57</t>
+          <t>-13,05; 6,56</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-28,53%</t>
+          <t>-22,03%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-15,06%</t>
+          <t>-22,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>-12,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,64%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>31,37%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>-24,45%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-17,81%</t>
+          <t>-9,45%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-7,39%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>-19,11%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-50,12; 2,48</t>
+          <t>-46,3; 10,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,04; 18,2</t>
+          <t>-45,37; 11,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,98; 99,19</t>
+          <t>-60,17; 63,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,81; 32,7</t>
+          <t>-28,26; 61,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,33; 42,08</t>
+          <t>-12,98; 90,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,35; 129,57</t>
+          <t>-72,72; 77,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-35,18; 6,13</t>
+          <t>-29,63; 20,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,19; 17,76</t>
+          <t>-20,79; 32,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,06; 80,95</t>
+          <t>-55,56; 34,64</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>-6,42</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>-11,97</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,44</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-5,49</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>-6,04</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 8,47</t>
+          <t>-8,52; 6,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 13,58</t>
+          <t>-14,13; 0,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,56; 11,59</t>
+          <t>-22,76; 1,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 2,29</t>
+          <t>-4,15; 9,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 1,3</t>
+          <t>-5,59; 7,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 14,53</t>
+          <t>-10,92; 16,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 2,81</t>
+          <t>-4,42; 5,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 5,91</t>
+          <t>-8,04; 1,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 7,66</t>
+          <t>-14,14; 3,39</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>-4,27%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>31,37%</t>
+          <t>-24,37%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-19,03%</t>
+          <t>-45,38%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-22,03%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-22,25%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-9,99%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-9,45%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>-13,11%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-14,81%</t>
+          <t>-26,5%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,81; 55,76</t>
+          <t>-28,38; 27,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 88,73</t>
+          <t>-46,71; 2,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-73,62; 73,73</t>
+          <t>-80,81; 6,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-47,8; 11,32</t>
+          <t>-19,1; 60,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-47,94; 7,08</t>
+          <t>-26,42; 50,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-60,04; 66,71</t>
+          <t>-54,62; 98,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-29,87; 14,52</t>
+          <t>-17,31; 27,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-20,85; 31,76</t>
+          <t>-31,64; 6,85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-52,6; 39,06</t>
+          <t>-59,74; 17,95</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-6,42</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-11,54</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-5,7</t>
+          <t>-2,69</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 8,52</t>
+          <t>-6,21; 1,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 7,16</t>
+          <t>-8,2; -0,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 15,57</t>
+          <t>-10,89; 3,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 6,73</t>
+          <t>-4,79; 2,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-13,94; 0,94</t>
+          <t>-4,79; 2,68</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-22,52; 3,21</t>
+          <t>-6,64; 5,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 5,1</t>
+          <t>-4,18; 0,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 1,89</t>
+          <t>-4,95; 0,02</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 4,79</t>
+          <t>-6,99; 2,2</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>-9,7%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>-18,44%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>-17,91%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-4,27%</t>
+          <t>-6,78%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-24,37%</t>
+          <t>-3,56%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-43,77%</t>
+          <t>-6,17%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>-8,38%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-13,11%</t>
+          <t>-11,37%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-25,02%</t>
+          <t>-12,37%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-21,37; 53,55</t>
+          <t>-24,46; 7,67</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-26,94; 46,89</t>
+          <t>-32,55; -4,29</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-52,72; 96,02</t>
+          <t>-45,47; 14,95</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-27,36; 30,67</t>
+          <t>-21,79; 12,28</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-47,2; 4,19</t>
+          <t>-21,19; 14,48</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-80,24; 19,8</t>
+          <t>-31,71; 30,88</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-17,77; 25,53</t>
+          <t>-18,57; 3,98</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-31,6; 8,8</t>
+          <t>-21,49; 0,11</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-54,86; 24,2</t>
+          <t>-31,14; 10,65</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-1,38</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,72</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,44</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-2,26</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-4,31</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-3,53</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-1,82</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-2,48</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-1,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-5,01; 1,97</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-4,2; 2,53</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-6,46; 5,97</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-5,89; 1,84</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-8,3; -0,74</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-10,01; 4,9</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-4,43; 0,63</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-5,12; 0,02</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-6,89; 2,86</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-6,78%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-3,56%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-2,15%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-9,7%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-18,44%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-15,11%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-8,38%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-11,37%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-8,94%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-22,95; 10,81</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-19,42; 13,76</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-30,83; 31,72</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-24,07; 8,58</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-32,29; -3,53</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-41,29; 21,18</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-19,2; 2,76</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-22,17; 0,06</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-30,7; 13,85</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
